--- a/results/sil_idt_report.xlsx
+++ b/results/sil_idt_report.xlsx
@@ -11,10 +11,10 @@
     <sheet name="FD002" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="FD003" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="FD004" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="drive-ball-1200-2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="drive-innerrace-1200-2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="fan-ball-1200" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="fan-innerrace-1200" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="DE-BB" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="DE-IR" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="FE-BB" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="FE-IR" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3946,78 +3946,6 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F1000">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="num" val="0.33"/>
-        <cfvo type="num" val="0.66"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="00FF0000"/>
-        <color rgb="00FFEB84"/>
-        <color rgb="0000B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G1:G1000">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="num" val="0.33"/>
-        <cfvo type="num" val="0.66"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="00FF0000"/>
-        <color rgb="00FFEB84"/>
-        <color rgb="0000B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB1:AB1000">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="num" val="0.33"/>
-        <cfvo type="num" val="0.66"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="00FF0000"/>
-        <color rgb="00FFEB84"/>
-        <color rgb="0000B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC1:AC1000">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="num" val="0.33"/>
-        <cfvo type="num" val="0.66"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="00FF0000"/>
-        <color rgb="00FFEB84"/>
-        <color rgb="0000B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD1:AD1000">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="num" val="0.33"/>
-        <cfvo type="num" val="0.66"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="00FF0000"/>
-        <color rgb="00FFEB84"/>
-        <color rgb="0000B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE1:AE1000">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="num" val="0.33"/>
-        <cfvo type="num" val="0.66"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="00FF0000"/>
-        <color rgb="00FFEB84"/>
-        <color rgb="0000B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -7531,78 +7459,6 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1000">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="num" val="0.33"/>
-        <cfvo type="num" val="0.66"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="00FF0000"/>
-        <color rgb="00FFEB84"/>
-        <color rgb="0000B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F1000">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="num" val="0.33"/>
-        <cfvo type="num" val="0.66"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="00FF0000"/>
-        <color rgb="00FFEB84"/>
-        <color rgb="0000B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G1:G1000">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="num" val="0.33"/>
-        <cfvo type="num" val="0.66"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="00FF0000"/>
-        <color rgb="00FFEB84"/>
-        <color rgb="0000B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB1:AB1000">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="num" val="0.33"/>
-        <cfvo type="num" val="0.66"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="00FF0000"/>
-        <color rgb="00FFEB84"/>
-        <color rgb="0000B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC1:AC1000">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="num" val="0.33"/>
-        <cfvo type="num" val="0.66"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="00FF0000"/>
-        <color rgb="00FFEB84"/>
-        <color rgb="0000B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD1:AD1000">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="num" val="0.33"/>
-        <cfvo type="num" val="0.66"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="00FF0000"/>
-        <color rgb="00FFEB84"/>
-        <color rgb="0000B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE1:AE1000">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="num" val="0.33"/>
@@ -11138,78 +10994,6 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F1000">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="num" val="0.33"/>
-        <cfvo type="num" val="0.66"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="00FF0000"/>
-        <color rgb="00FFEB84"/>
-        <color rgb="0000B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G1:G1000">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="num" val="0.33"/>
-        <cfvo type="num" val="0.66"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="00FF0000"/>
-        <color rgb="00FFEB84"/>
-        <color rgb="0000B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB1:AB1000">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="num" val="0.33"/>
-        <cfvo type="num" val="0.66"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="00FF0000"/>
-        <color rgb="00FFEB84"/>
-        <color rgb="0000B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC1:AC1000">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="num" val="0.33"/>
-        <cfvo type="num" val="0.66"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="00FF0000"/>
-        <color rgb="00FFEB84"/>
-        <color rgb="0000B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD1:AD1000">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="num" val="0.33"/>
-        <cfvo type="num" val="0.66"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="00FF0000"/>
-        <color rgb="00FFEB84"/>
-        <color rgb="0000B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE1:AE1000">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="num" val="0.33"/>
-        <cfvo type="num" val="0.66"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="00FF0000"/>
-        <color rgb="00FFEB84"/>
-        <color rgb="0000B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -14723,78 +14507,6 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1000">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="num" val="0.33"/>
-        <cfvo type="num" val="0.66"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="00FF0000"/>
-        <color rgb="00FFEB84"/>
-        <color rgb="0000B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F1000">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="num" val="0.33"/>
-        <cfvo type="num" val="0.66"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="00FF0000"/>
-        <color rgb="00FFEB84"/>
-        <color rgb="0000B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G1:G1000">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="num" val="0.33"/>
-        <cfvo type="num" val="0.66"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="00FF0000"/>
-        <color rgb="00FFEB84"/>
-        <color rgb="0000B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB1:AB1000">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="num" val="0.33"/>
-        <cfvo type="num" val="0.66"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="00FF0000"/>
-        <color rgb="00FFEB84"/>
-        <color rgb="0000B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC1:AC1000">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="num" val="0.33"/>
-        <cfvo type="num" val="0.66"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="00FF0000"/>
-        <color rgb="00FFEB84"/>
-        <color rgb="0000B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD1:AD1000">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="num" val="0.33"/>
-        <cfvo type="num" val="0.66"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="00FF0000"/>
-        <color rgb="00FFEB84"/>
-        <color rgb="0000B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE1:AE1000">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="num" val="0.33"/>
@@ -18330,78 +18042,6 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F1000">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="num" val="0.2"/>
-        <cfvo type="num" val="0.5"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="00FF0000"/>
-        <color rgb="00FFEB84"/>
-        <color rgb="0000B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G1:G1000">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="num" val="0.2"/>
-        <cfvo type="num" val="0.5"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="00FF0000"/>
-        <color rgb="00FFEB84"/>
-        <color rgb="0000B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB1:AB1000">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="num" val="0.2"/>
-        <cfvo type="num" val="0.5"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="00FF0000"/>
-        <color rgb="00FFEB84"/>
-        <color rgb="0000B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC1:AC1000">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="num" val="0.2"/>
-        <cfvo type="num" val="0.5"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="00FF0000"/>
-        <color rgb="00FFEB84"/>
-        <color rgb="0000B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD1:AD1000">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="num" val="0.2"/>
-        <cfvo type="num" val="0.5"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="00FF0000"/>
-        <color rgb="00FFEB84"/>
-        <color rgb="0000B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE1:AE1000">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="num" val="0.2"/>
-        <cfvo type="num" val="0.5"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="00FF0000"/>
-        <color rgb="00FFEB84"/>
-        <color rgb="0000B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -21915,78 +21555,6 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1000">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="num" val="0.2"/>
-        <cfvo type="num" val="0.5"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="00FF0000"/>
-        <color rgb="00FFEB84"/>
-        <color rgb="0000B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F1000">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="num" val="0.2"/>
-        <cfvo type="num" val="0.5"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="00FF0000"/>
-        <color rgb="00FFEB84"/>
-        <color rgb="0000B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G1:G1000">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="num" val="0.2"/>
-        <cfvo type="num" val="0.5"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="00FF0000"/>
-        <color rgb="00FFEB84"/>
-        <color rgb="0000B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB1:AB1000">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="num" val="0.2"/>
-        <cfvo type="num" val="0.5"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="00FF0000"/>
-        <color rgb="00FFEB84"/>
-        <color rgb="0000B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC1:AC1000">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="num" val="0.2"/>
-        <cfvo type="num" val="0.5"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="00FF0000"/>
-        <color rgb="00FFEB84"/>
-        <color rgb="0000B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD1:AD1000">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="num" val="0.2"/>
-        <cfvo type="num" val="0.5"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="00FF0000"/>
-        <color rgb="00FFEB84"/>
-        <color rgb="0000B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE1:AE1000">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="num" val="0.2"/>
@@ -25522,78 +25090,6 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F1000">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="num" val="0.2"/>
-        <cfvo type="num" val="0.5"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="00FF0000"/>
-        <color rgb="00FFEB84"/>
-        <color rgb="0000B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G1:G1000">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="num" val="0.2"/>
-        <cfvo type="num" val="0.5"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="00FF0000"/>
-        <color rgb="00FFEB84"/>
-        <color rgb="0000B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB1:AB1000">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="num" val="0.2"/>
-        <cfvo type="num" val="0.5"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="00FF0000"/>
-        <color rgb="00FFEB84"/>
-        <color rgb="0000B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC1:AC1000">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="num" val="0.2"/>
-        <cfvo type="num" val="0.5"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="00FF0000"/>
-        <color rgb="00FFEB84"/>
-        <color rgb="0000B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD1:AD1000">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="num" val="0.2"/>
-        <cfvo type="num" val="0.5"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="00FF0000"/>
-        <color rgb="00FFEB84"/>
-        <color rgb="0000B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE1:AE1000">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="num" val="0.2"/>
-        <cfvo type="num" val="0.5"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="00FF0000"/>
-        <color rgb="00FFEB84"/>
-        <color rgb="0000B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -29118,78 +28614,6 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F1000">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="num" val="0.2"/>
-        <cfvo type="num" val="0.5"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="00FF0000"/>
-        <color rgb="00FFEB84"/>
-        <color rgb="0000B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G1:G1000">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="num" val="0.2"/>
-        <cfvo type="num" val="0.5"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="00FF0000"/>
-        <color rgb="00FFEB84"/>
-        <color rgb="0000B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB1:AB1000">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="num" val="0.2"/>
-        <cfvo type="num" val="0.5"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="00FF0000"/>
-        <color rgb="00FFEB84"/>
-        <color rgb="0000B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC1:AC1000">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="num" val="0.2"/>
-        <cfvo type="num" val="0.5"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="00FF0000"/>
-        <color rgb="00FFEB84"/>
-        <color rgb="0000B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD1:AD1000">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="num" val="0.2"/>
-        <cfvo type="num" val="0.5"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="00FF0000"/>
-        <color rgb="00FFEB84"/>
-        <color rgb="0000B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE1:AE1000">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="num" val="0.2"/>
-        <cfvo type="num" val="0.5"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="00FF0000"/>
-        <color rgb="00FFEB84"/>
-        <color rgb="0000B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>